--- a/benchmark_results_random/benchmark_results_9neurons.xlsx
+++ b/benchmark_results_random/benchmark_results_9neurons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,6 +713,141 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>func10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003236564213015874</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09863256667920038</v>
+      </c>
+      <c r="E11" t="n">
+        <v>54.30611515080133</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.52204179763794</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(2, [9], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>func11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6.783794571329132e-05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0001009076950451479</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0006835188079962365</v>
+      </c>
+      <c r="F12" t="n">
+        <v>178.5549161434174</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(2, [9], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>func12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0004366872196290417</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01269418444715925</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4327871888399128</v>
+      </c>
+      <c r="F13" t="n">
+        <v>232.372522354126</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(3, [9], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>func13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7.921043652708172e-05</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.005961790140591499</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04030541555445227</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18.21037817001343</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(4, [9], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>func14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8.879988616503679e-05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01508752289991103</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1385612785956128</v>
+      </c>
+      <c r="F15" t="n">
+        <v>103.6890161037445</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(5, [9], 1)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
